--- a/KLS/pagos-empleados-02-2024.xlsx
+++ b/KLS/pagos-empleados-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,270 +436,299 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>salary</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>proyect</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>4341.10€</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bird Ramsey</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>NIMON</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>birdramsey@nimon.com</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>2749.44€</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>31</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Jonathan Martinez</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>LUXURIA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>jonatanmart@luxuria.com</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>3102.20€</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kristie Cole</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>QUADEEBO</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>kristiecole@quadeebo.com</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>2169.72€</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Marsh Mccall</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>ULTRIMAX</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>marshmccall@ultrimax.com</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>3436.89€</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Carlitos Jonas</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>NIMON</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>carlitosjonas@nimon.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>1649.44€</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bordell Carlman</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>LUXURIA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>lillianburgess@luxuria.com</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>2662.20€</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Cristina Cole</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>QUADEEBO</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>criscol@quadeebo.com</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>3269.72€</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>MartiÃ±o Rivas</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>ULTRIMAX</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>marriv@ultrimax.com</t>
         </is>
